--- a/notebooks/Output/CPM/instance1_Schedule_vCp2n150s12d1.xlsx
+++ b/notebooks/Output/CPM/instance1_Schedule_vCp2n150s12d1.xlsx
@@ -525,7 +525,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DAVID NICOLAS DIAZ CID</t>
+          <t>OSCAR ESTEBAN ULLOA ARTIGAS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TRAUMATO_2</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
         <v>7</v>
@@ -556,28 +556,28 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BLOQUE 2</t>
+          <t>BLOQUE 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MARCELA ANDREA JARA ROCHA</t>
+          <t>OSCAR ESTEBAN ULLOA ARTIGAS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -586,30 +586,30 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BLOQUE 6</t>
+          <t>BLOQUE 2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CARMEN GLORIA SANCHEZ PEREIRA</t>
+          <t>OSCAR ESTEBAN ULLOA ARTIGAS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>7</v>
@@ -640,127 +640,127 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BLOQUE 8</t>
+          <t>BLOQUE 3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>VICENTE ANDRES DONOSO MONROY</t>
+          <t>LISETTE PATRICIA MUÑOZ ARRATIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CIRUGIA INFANTIL</t>
+          <t>CIRUGIA GENERAL</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BLOQUE 9</t>
+          <t>BLOQUE 4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAURA MATUS NECUL</t>
+          <t>LISETTE PATRICIA MUÑOZ ARRATIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TRAUMATO_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CIRUGIA INFANTIL</t>
+          <t>CIRUGIA GENERAL</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BLOQUE 10</t>
+          <t>BLOQUE 5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EMANUEL LLANQUINAO CANSECO</t>
+          <t>SUSAN MACARENA OÑATE HUAIQUIL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TRAUMATO_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CIRUGIA INFANTIL</t>
+          <t>CIRUGIA GENERAL</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
@@ -772,22 +772,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BLOQUE 11</t>
+          <t>BLOQUE 8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>JOAQUIN IGNACIO VERDUGO BURGOS</t>
+          <t>MARTIN GONZALEZ MORIS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,37 +799,37 @@
         <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MARTIN GONZALEZ MORIS</t>
+          <t>VICENTE ANDRES DONOSO MONROY</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -841,37 +841,37 @@
         <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BLOQUE 13</t>
+          <t>BLOQUE 10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAMUEL ABRAHAN DAVILA LILLO</t>
+          <t>DAVID ALONSO CALDERON VALENZUELA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>TRAUMATO_2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -883,22 +883,22 @@
         <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BLOQUE 14</t>
+          <t>BLOQUE 11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -908,12 +908,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -925,27 +925,27 @@
         <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BLOQUE 15</t>
+          <t>BLOQUE 12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DAVID ALONSO CALDERON VALENZUELA</t>
+          <t>MATIAS ENRIQUE VILLALOBOS URREA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>TRAUMATO_2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -982,164 +982,164 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PABELLON 1</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>BLOQUE 13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MATIAS ENRIQUE VILLALOBOS URREA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>INFANTIL_1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TRAUMATO_2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>CIRUGIA INFANTIL</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BLOQUE 0</t>
+          <t>BLOQUE 14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CAMILA ANDREA ZAMBRANO DE  LA HOZ</t>
+          <t>JOAQUIN IGNACIO VERDUGO BURGOS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CIRUGIA GENERAL</t>
+          <t>CIRUGIA INFANTIL</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BLOQUE 1</t>
+          <t>BLOQUE 15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NATALIA ANDREA RIFFO ITURRA</t>
+          <t>SAMUEL ABRAHAN DAVILA LILLO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CIRUGIA GENERAL</t>
+          <t>CIRUGIA INFANTIL</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BLOQUE 7</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>MIRCY GRACIELA NAVARRO PRADO</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>GENERAL_1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>TRAUMATO_2</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>CIRUGIA GENERAL</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>7</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>11</v>
-      </c>
+          <t>PABELLON 1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BLOQUE 8</t>
+          <t>BLOQUE 3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CESAR FERRADA GUTIERREZ</t>
+          <t>NAYADETH ESTEFANY CHAIHUEQUE ARIAS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>TRAUMATO_2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1151,39 +1151,39 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BLOQUE 9</t>
+          <t>BLOQUE 6</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LISETTE PATRICIA MUÑOZ ARRATIA</t>
+          <t>RAYDORETH ISABEL GODOY ALVARADO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>GENERAL_1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>GENERAL_2</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>OFTALMO_2</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>CIRUGIA GENERAL</t>
@@ -1193,37 +1193,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BLOQUE 10</t>
+          <t>BLOQUE 7</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LISETTE PATRICIA MUÑOZ ARRATIA</t>
+          <t>MIRCY GRACIELA NAVARRO PRADO</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>TRAUMATO_2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1235,27 +1235,27 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BLOQUE 11</t>
+          <t>BLOQUE 8</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>JENIFER NICOLE MENDEZ ESPINOZA</t>
+          <t>GRIXY GENESIS SALVO ROJAS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TRAUMATO_1</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1292,12 +1292,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 9</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>JENIFER NICOLE MENDEZ ESPINOZA</t>
+          <t>MARCELA ANDREA JARA ROCHA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1334,12 +1334,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BLOQUE 13</t>
+          <t>BLOQUE 11</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FERNANDA MACARENA IBAÑEZ ASTETE</t>
+          <t>NATALIA ANDREA RIFFO ITURRA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1376,12 +1376,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BLOQUE 14</t>
+          <t>BLOQUE 12</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SUSAN MACARENA OÑATE HUAIQUIL</t>
+          <t>CESAR FERRADA GUTIERREZ</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1418,12 +1418,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BLOQUE 15</t>
+          <t>BLOQUE 13</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GRIXY GENESIS SALVO ROJAS</t>
+          <t>JENIFER NICOLE MENDEZ ESPINOZA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TRAUMATO_1</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1460,112 +1460,112 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PABELLON 2</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+          <t>BLOQUE 14</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>JENIFER NICOLE MENDEZ ESPINOZA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>GENERAL_2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GENERAL_1</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>CIRUGIA GENERAL</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BLOQUE 0</t>
+          <t>BLOQUE 15</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LUIS ALEJANDRO PACHECO LAGOS</t>
+          <t>VIVIANA ANGELICA DIAZ FIGUEROA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>OFTALMOLOGIA</t>
+          <t>CIRUGIA GENERAL</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BLOQUE 1</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>FLORENTINO SEGUNDO HIDALGO FAUNDEZ</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>OFTALMO_1</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INFANTIL_1</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>OFTALMOLOGIA</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3</v>
-      </c>
+          <t>PABELLON 2</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BLOQUE 2</t>
+          <t>BLOQUE 0</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PATRICIO NICOLAS RAMIREZ FRITIS</t>
+          <t>LUIS ALEJANDRO PACHECO LAGOS</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>GINECO_2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1602,22 +1602,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BLOQUE 3</t>
+          <t>BLOQUE 1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PASCUALA LUISA QUILALEO LINCOÑIR</t>
+          <t>ISMAEL CONTRERAS RIQUELME</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1635,21 +1635,21 @@
         <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BLOQUE 4</t>
+          <t>BLOQUE 2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>JUAN DE LA CRUZ MUÑOZ ASTETE</t>
+          <t>FILOMENA DEL CARMEN  JARA GODOY</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1668,7 +1668,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1680,28 +1680,28 @@
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BLOQUE 5</t>
+          <t>BLOQUE 3</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>JOSE EDGARDO ERICES VALDEBENITO</t>
+          <t>JOSE OSCAR ISLA ROCHA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>TRAUMATO_1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1710,7 +1710,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1719,21 +1719,21 @@
         <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BLOQUE 6</t>
+          <t>BLOQUE 4</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CECILIA DEL CARMEN BARRALES GONZALEZ</t>
+          <t>FLORENTINO SEGUNDO HIDALGO FAUNDEZ</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1764,18 +1764,18 @@
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BLOQUE 7</t>
+          <t>BLOQUE 5</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FILOMENA DEL CARMEN  JARA GODOY</t>
+          <t>JOSE EDGARDO ERICES VALDEBENITO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1812,7 +1812,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BLOQUE 8</t>
+          <t>BLOQUE 6</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1839,32 +1839,32 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BLOQUE 9</t>
+          <t>BLOQUE 7</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>JOSE GARCES RIQUELME</t>
+          <t>DESIDERIO AREVALO SOTO</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1881,22 +1881,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BLOQUE 10</t>
+          <t>BLOQUE 8</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -1932,46 +1932,46 @@
         <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BLOQUE 11</t>
+          <t>BLOQUE 9</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DESIDERIO AREVALO SOTO</t>
+          <t>JOSE GARCES RIQUELME</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>OFTALMO_1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>OFTALMO_2</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>INFANTIL_1</t>
-        </is>
-      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>OFTALMOLOGIA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
         <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J39" t="n">
         <v>10</v>
@@ -1980,17 +1980,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 10</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ETELVINA DEL CARMEN SAEZ RAMIREZ</t>
+          <t>JOSE MANUEL CHANDIA CATRIUPAY</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2007,32 +2007,32 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
         <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BLOQUE 13</t>
+          <t>BLOQUE 11</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ISMAEL CONTRERAS RIQUELME</t>
+          <t>ETELVINA DEL CARMEN SAEZ RAMIREZ</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2049,27 +2049,27 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H41" t="n">
         <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BLOQUE 14</t>
+          <t>BLOQUE 12</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>JOSE MANUEL CHANDIA CATRIUPAY</t>
+          <t>GUILLERMO SAAVEDRA JARA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -2100,30 +2100,30 @@
         <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BLOQUE 15</t>
+          <t>BLOQUE 13</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ILVA MAGDALENA CARRASCO MALDONADO</t>
+          <t>GUILLERMO SAAVEDRA JARA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>OFTALMO_1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>OFTALMO_2</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>INFANTIL_2</t>
-        </is>
-      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>OFTALMOLOGIA</t>
@@ -2133,122 +2133,122 @@
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
         <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PABELLON 3</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+          <t>BLOQUE 14</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>JUAN DE LA CRUZ MUÑOZ ASTETE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>OFTALMO_2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>TRAUMATO_1</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>OFTALMOLOGIA</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" t="n">
+        <v>7</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BLOQUE 0</t>
+          <t>BLOQUE 15</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MARIA TERESA ROMERO LEVIO</t>
+          <t>PASCUALA LUISA QUILALEO LINCOÑIR</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>GINECO_2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>GINECOLOGIA</t>
+          <t>OFTALMOLOGIA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BLOQUE 1</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>NOEMI ALEJANDRA CIFUENTES SAN MARTÍN</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>GINECO_1</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>OFTALMO_1</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>GINECOLOGIA</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>4</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>7</v>
-      </c>
+          <t>PABELLON 3</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BLOQUE 2</t>
+          <t>BLOQUE 0</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2290,22 +2290,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BLOQUE 3</t>
+          <t>BLOQUE 1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PATRICIA VIVIANA  LEIVA CARRASCO</t>
+          <t>NOEMI ALEJANDRA CIFUENTES SAN MARTÍN</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2317,27 +2317,27 @@
         <v>4</v>
       </c>
       <c r="G48" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BLOQUE 4</t>
+          <t>BLOQUE 2</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ALEJANDRA MARISOL LIZANA MEZA</t>
+          <t>PATRICIA RIQUELME GONZALEZ</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2374,12 +2374,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BLOQUE 5</t>
+          <t>BLOQUE 3</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>VALENTINA IGNACIA ORMEÑO HENRIQUEZ</t>
+          <t>ALEJANDRA MARISOL LIZANA MEZA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2416,12 +2416,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BLOQUE 6</t>
+          <t>BLOQUE 4</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>RAQUEL AURORA CONTADOR JIMENEZ</t>
+          <t>MARIA TERESA ROMERO LEVIO</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2458,22 +2458,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BLOQUE 7</t>
+          <t>BLOQUE 5</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PATRICIA RIQUELME GONZALEZ</t>
+          <t>VALENTINA IGNACIA ORMEÑO HENRIQUEZ</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2485,111 +2485,111 @@
         <v>4</v>
       </c>
       <c r="G52" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BLOQUE 8</t>
+          <t>BLOQUE 6</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ELIA DEL CARMEN PEREIRA SOBARZO</t>
+          <t>RAQUEL AURORA CONTADOR JIMENEZ</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>OTORRINO_1</t>
+          <t>GINECO_2</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>OTORRINOLARINGOLOGIA</t>
+          <t>GINECOLOGIA</t>
         </is>
       </c>
       <c r="F53" t="n">
         <v>4</v>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BLOQUE 9</t>
+          <t>BLOQUE 7</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>LAURA CID PONSOT</t>
+          <t>PATRICIA VIVIANA  LEIVA CARRASCO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>OTORRINO_1</t>
+          <t>GINECO_2</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>OTORRINOLARINGOLOGIA</t>
+          <t>GINECOLOGIA</t>
         </is>
       </c>
       <c r="F54" t="n">
         <v>4</v>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BLOQUE 10</t>
+          <t>BLOQUE 8</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ANIBAL EDUARDO BURDILES MEDINA</t>
+          <t>JOSE DELFIN CAMPOS ISLA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2626,22 +2626,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BLOQUE 11</t>
+          <t>BLOQUE 9</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MARIA ELENA PEREIRA JIMENEZ</t>
+          <t>JOSE DELFIN CAMPOS ISLA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>OTORRINO_1</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>GENERAL_2</t>
+          <t>GINECO_2</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2653,27 +2653,27 @@
         <v>4</v>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 10</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>EDGARD NEFTALY MUÑOZ ROCHA</t>
+          <t>ELIA DEL CARMEN PEREIRA SOBARZO</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>TRAUMATO_2</t>
+          <t>GINECO_2</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2710,22 +2710,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BLOQUE 13</t>
+          <t>BLOQUE 11</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>JOSE DELFIN CAMPOS ISLA</t>
+          <t>LAURA CID PONSOT</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2737,27 +2737,27 @@
         <v>4</v>
       </c>
       <c r="G58" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BLOQUE 14</t>
+          <t>BLOQUE 12</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>JOSE DELFIN CAMPOS ISLA</t>
+          <t>ANIBAL EDUARDO BURDILES MEDINA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2794,12 +2794,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BLOQUE 15</t>
+          <t>BLOQUE 13</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AGUSTIN EDUARDO MARTINEZ SANHUEZA</t>
+          <t>MAXIMILIANO SEBASTIAN CORREA PEREZ</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2834,28 +2834,88 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>BLOQUE 14</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>EDGARD NEFTALY MUÑOZ ROCHA</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>OTORRINO_1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>GENERAL_2</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>OTORRINOLARINGOLOGIA</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>4</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr"/>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>BLOQUE 15</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MARIA ELENA PEREIRA JIMENEZ</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>OTORRINO_1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>GENERAL_2</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>OTORRINOLARINGOLOGIA</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>4</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
